--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
+++ b/fhir/ValueSet-ehealth-clinicalimpression-finding-codes.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Include #2" r:id="rId6" sheetId="4"/>
     <sheet name="Include #3" r:id="rId7" sheetId="5"/>
     <sheet name="Include #4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include #5" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -218,6 +219,18 @@
   </si>
   <si>
     <t>http://ehealth.sundhed.dk/cs/reference-range-type</t>
+  </si>
+  <si>
+    <t>deviation-found</t>
+  </si>
+  <si>
+    <t>no-deviation-found</t>
+  </si>
+  <si>
+    <t>insufficient-data</t>
+  </si>
+  <si>
+    <t>http://ehealth.sundhed.dk/cs/clinicalimpression-decision-support-codes</t>
   </si>
 </sst>
 </file>
@@ -785,4 +798,63 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>